--- a/data/trans_bre/P38_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P38_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -562,22 +566,32 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>M4</t>
+          <t>M5</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>M4</t>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>-0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,77</t>
+          <t>2,99</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,9</t>
+          <t>8,13</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>5,1</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>-0,02%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>16,39%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>34,68%</t>
+          <t>14,08%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>26,11%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>16,17%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 4,89</t>
+          <t>-4,75; 4,57</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,86; 12,27</t>
+          <t>-1,63; 7,24</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,56; 15,39</t>
+          <t>2,32; 15,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-20,47; 26,11</t>
+          <t>-0,13; 9,63</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,86; 31,86</t>
+          <t>-19,49; 23,86</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,1; 57,88</t>
+          <t>-7,17; 37,9</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>7,17; 55,39</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-0,37; 34,09</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,82</t>
+          <t>4,15</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,66</t>
+          <t>5,49</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8,31</t>
+          <t>-1,0</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>27,64%</t>
+          <t>3,06</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>16,65%</t>
+          <t>30,02%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>35,24%</t>
+          <t>33,07%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-3,06%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>10,49%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 8,59</t>
+          <t>-0,35; 9,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 12,01</t>
+          <t>0,15; 10,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,26; 14,15</t>
+          <t>-8,04; 6,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,93; 72,76</t>
+          <t>-7,6; 12,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 39,94</t>
+          <t>-3,47; 84,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,44; 68,99</t>
+          <t>0,59; 77,17</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-22,21; 23,69</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-21,98; 50,22</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,03</t>
+          <t>7,1</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,89</t>
+          <t>6,97</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>12,8</t>
+          <t>10,16</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>18,42%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>32,08%</t>
+          <t>36,69%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>46,68%</t>
+          <t>31,34%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>38,58%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,5; 14,65</t>
+          <t>-3,26; 17,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,59; 22,9</t>
+          <t>-2,54; 16,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,77; 23,85</t>
+          <t>-2,17; 22,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-31,14; 93,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,61; 85,71</t>
+          <t>-14,84; 129,93</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,28; 116,49</t>
+          <t>-9,63; 105,25</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-7,98; 116,74</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,04</t>
+          <t>2,54</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,03</t>
+          <t>4,48</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9,72</t>
+          <t>4,88</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,88%</t>
+          <t>4,71</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>18,74%</t>
+          <t>13,79%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>36,8%</t>
+          <t>22,95%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>15,69%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>15,23%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 5,27</t>
+          <t>-0,83; 6,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,08; 11,06</t>
+          <t>0,7; 7,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,03; 13,82</t>
+          <t>0,55; 9,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,77; 31,47</t>
+          <t>0,49; 9,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,77; 31,83</t>
+          <t>-4,07; 37,87</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>21,07; 56,85</t>
+          <t>3,2; 42,19</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>1,56; 32,16</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>1,4; 31,24</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P38_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P38_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-0,0</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2,99</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>8,13</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>5,1</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-0,02%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>14,08%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>26,11%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>16,17%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-0.5181825796044398</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>2.896128955278057</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>8.023890688984137</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>4.929586638502243</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-0.02332146245367878</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.1349822984442186</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.2545673128275444</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.1563152816122289</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-4,75; 4,57</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-1,63; 7,24</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>2,32; 15,04</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-0,13; 9,63</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-19,49; 23,86</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-7,17; 37,9</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>7,17; 55,39</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-0,37; 34,09</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-5.401376608723868</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-1.825816560250362</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>2.36070516759218</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.3851355695342558</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.2197525658049665</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.08320156915764547</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0.07058140285338761</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.009721701550413617</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>4.081509879747045</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>7.209307498479339</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>15.11799904410797</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>9.422999159347349</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.2094661496229456</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.3703054568937363</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.5485191428602918</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.3364224344515006</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>4,15</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>5,49</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-1,0</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>3,06</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>30,02%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>33,07%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-3,06%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>10,49%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-0,35; 9,29</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,15; 10,47</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-8,04; 6,7</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-7,6; 12,65</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-3,47; 84,35</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>0,59; 77,17</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-22,21; 23,69</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-21,98; 50,22</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>4.930606263713464</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>5.428970342217498</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-1.042020980959241</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>3.44699402917773</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.3732214725985736</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.3265386856572864</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.03247764521044749</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.1190907274770772</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>7,1</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>6,97</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>10,16</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>36,69%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>31,34%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>38,58%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>0.1160883512837414</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.4836025062525699</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-7.774130483921916</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-6.868583245537565</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>0.002430327278945183</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.0295760037499452</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.2199438814624079</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.2082783467858395</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-3,26; 17,84</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-2,54; 16,84</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-2,17; 22,89</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-14,84; 129,93</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-9,63; 105,25</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-7,98; 116,74</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>10.50790534172771</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>10.59643738311887</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>6.589373556637172</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>12.85283700115963</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.9738493121465079</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.7865988514813268</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.2394774968774688</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.51562756518329</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,97 +827,185 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>2,54</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>4,48</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>4,88</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>4,71</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>13,79%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>22,95%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>15,69%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>15,23%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>3.955706038882032</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>6.754644776880933</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>11.41086090769857</v>
+      </c>
+      <c r="F10" s="5" t="inlineStr"/>
+      <c r="G10" s="6" t="n">
+        <v>0.183600344023711</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.3028541032023751</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.4397697851180822</v>
+      </c>
+      <c r="J10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-0,83; 6,16</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0,7; 7,58</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>0,55; 9,09</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>0,49; 9,0</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-4,07; 37,87</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>3,2; 42,19</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>1,56; 32,16</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>1,4; 31,24</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-8.536404770589785</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-2.701106581608991</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.9752667166155223</v>
+      </c>
+      <c r="F11" s="5" t="inlineStr"/>
+      <c r="G11" s="6" t="n">
+        <v>-0.3070357417158975</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.09670962807505518</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.04570446684614147</v>
+      </c>
+      <c r="J11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>15.59825158024626</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>16.98027436297337</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>23.86615098719652</v>
+      </c>
+      <c r="F12" s="5" t="inlineStr"/>
+      <c r="G12" s="6" t="n">
+        <v>1.157551095535764</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>1.048989600296909</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>1.267244731350095</v>
+      </c>
+      <c r="J12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>2.218949579983792</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>4.386555296594049</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>4.974123098991195</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>4.673582204003873</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.1196461344798765</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.2234676035821305</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.1601582557556444</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.1512468879101775</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-1.189721656230636</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.5174740377699379</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.6460880295260834</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.4389487830714005</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.05946617910667461</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.01765762931954044</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.01581062689031291</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.01343023338941947</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>5.950309124061473</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>7.413059354889678</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>9.169922055115522</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>8.989406151171217</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.3540708871095635</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.4142449880857076</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.3196156173626808</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.3130176217234549</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1016,13 +1013,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
